--- a/data/checked/china/fujian/fujianCaseStatistics_20200409.xlsx
+++ b/data/checked/china/fujian/fujianCaseStatistics_20200409.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\fujian\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\checked\china\fujian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97889710-0585-4A53-BC29-A0CB3211CEF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07363F07-F401-4410-91E0-D9C4FE9CF0EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8130" yWindow="900" windowWidth="16920" windowHeight="12130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10851,8 +10851,8 @@
   <dimension ref="A1:AT90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T96" sqref="T96"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O83" sqref="O83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15" customHeight="1"/>
@@ -17555,7 +17555,7 @@
       </c>
       <c r="Q81" s="19"/>
       <c r="R81" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S81" s="19"/>
       <c r="T81" s="15"/>
